--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Misc\Measurements and calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_32F0BC68DDE8F54D42216BF7034DE0CAD8678985" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{CFF2B64C-ECC3-4ADC-93E1-F8ED74F7A5B6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$A$10:$A$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$A$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$D$10:$D$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$D$9</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Ark1'!$A$10:$A$25</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Ark1'!$A$9</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Ark1'!$D$10:$D$25</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Ark1'!$D$9</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -453,10 +444,11 @@
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -594,7 +586,579 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vdd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$D$9:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Joule μJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32,5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33,1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33,6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34,2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35,2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35,6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36,1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36,6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37,1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37,6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38,1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38,5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38,8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$A$10:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85B3-4352-B826-5FBA1E7C6872}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$D$9:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Joule μJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32,5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33,1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33,6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34,2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35,2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35,6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36,1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36,6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37,1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37,6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38,1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38,5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38,8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark1'!$D$9:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Joule μJ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32,5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33,1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33,6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34,2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34,7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35,2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35,6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36,1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36,6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37,1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37,6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38,1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38,5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38,8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85B3-4352-B826-5FBA1E7C6872}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="579551800"/>
+        <c:axId val="579544584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579551800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579544584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579544584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579551800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1172,6 +1736,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1205,6 +2318,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>969177</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>64142</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C0D457-75AA-49DE-B4A9-41D9CF32E3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1512,11 +2661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1529,10 +2678,10 @@
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1541,7 +2690,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +2733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1.8</v>
       </c>
@@ -1623,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1.9</v>
       </c>
@@ -1641,7 +2790,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="L11" s="5">
-        <f>M11*N11*O11*10^(-3)</f>
+        <f t="shared" ref="L11:L26" si="1">M11*N11*O11*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
       <c r="M11" s="4">
@@ -1657,7 +2806,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1675,7 +2824,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="L12" s="5">
-        <f>M12*N12*O12*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>32.489999999999995</v>
       </c>
       <c r="M12" s="3">
@@ -1691,7 +2840,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2.1</v>
       </c>
@@ -1709,7 +2858,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="L13" s="5">
-        <f>M13*N13*O13*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>33.049999999999997</v>
       </c>
       <c r="M13" s="4">
@@ -1725,7 +2874,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -1750,7 +2899,7 @@
         <v>33.688565856000011</v>
       </c>
       <c r="L14" s="5">
-        <f>M14*N14*O14*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>33.6</v>
       </c>
       <c r="M14" s="3">
@@ -1766,7 +2915,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -1787,11 +2936,11 @@
         <v>29.44</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:G25" si="1">A15*E15*F15*10^(-3)</f>
+        <f t="shared" ref="G15:G25" si="2">A15*E15*F15*10^(-3)</f>
         <v>34.892873856000001</v>
       </c>
       <c r="L15" s="5">
-        <f>M15*N15*O15*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>34.155000000000001</v>
       </c>
       <c r="M15" s="4">
@@ -1814,7 +2963,7 @@
         <v>33.688565856000011</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>2.4</v>
       </c>
@@ -1835,11 +2984,11 @@
         <v>29.119</v>
       </c>
       <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>36.496496659199991</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>36.496496659199991</v>
-      </c>
-      <c r="L16" s="5">
-        <f>M16*N16*O16*10^(-3)</f>
         <v>34.672499999999999</v>
       </c>
       <c r="M16" s="3">
@@ -1858,11 +3007,11 @@
         <v>29.44</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" ref="S16:S26" si="2">M16*Q16*R16*10^(-3)</f>
+        <f t="shared" ref="S16:S26" si="3">M16*Q16*R16*10^(-3)</f>
         <v>34.892873856000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2.5</v>
       </c>
@@ -1883,11 +3032,11 @@
         <v>21.311</v>
       </c>
       <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>38.194320085000001</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>38.194320085000001</v>
-      </c>
-      <c r="L17" s="5">
-        <f>M17*N17*O17*10^(-3)</f>
         <v>35.160000000000004</v>
       </c>
       <c r="M17" s="4">
@@ -1906,11 +3055,11 @@
         <v>29.119</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.496496659199991</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2.6</v>
       </c>
@@ -1931,11 +3080,11 @@
         <v>24.31</v>
       </c>
       <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>39.512093192000002</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>39.512093192000002</v>
-      </c>
-      <c r="L18" s="5">
-        <f>M18*N18*O18*10^(-3)</f>
         <v>35.625</v>
       </c>
       <c r="M18" s="3">
@@ -1954,11 +3103,11 @@
         <v>21.311</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.194320085000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2.7</v>
       </c>
@@ -1979,11 +3128,11 @@
         <v>23.148</v>
       </c>
       <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>40.9781127384</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>40.9781127384</v>
-      </c>
-      <c r="L19" s="5">
-        <f>M19*N19*O19*10^(-3)</f>
         <v>36.075000000000003</v>
       </c>
       <c r="M19" s="4">
@@ -2002,11 +3151,11 @@
         <v>24.31</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.512093192000002</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2.8</v>
       </c>
@@ -2027,11 +3176,11 @@
         <v>21.962</v>
       </c>
       <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>42.549082167199998</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>42.549082167199998</v>
-      </c>
-      <c r="L20" s="5">
-        <f>M20*N20*O20*10^(-3)</f>
         <v>36.585000000000001</v>
       </c>
       <c r="M20" s="3">
@@ -2050,11 +3199,11 @@
         <v>23.148</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.9781127384</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2.9</v>
       </c>
@@ -2075,11 +3224,11 @@
         <v>21.428999999999998</v>
       </c>
       <c r="G21" s="5">
+        <f t="shared" si="2"/>
+        <v>43.776044074799998</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>43.776044074799998</v>
-      </c>
-      <c r="L21" s="5">
-        <f>M21*N21*O21*10^(-3)</f>
         <v>37.1</v>
       </c>
       <c r="M21" s="4">
@@ -2098,11 +3247,11 @@
         <v>21.962</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.549082167199998</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -2123,11 +3272,11 @@
         <v>29.901</v>
       </c>
       <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>45.719645634000003</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>45.719645634000003</v>
-      </c>
-      <c r="L22" s="5">
-        <f>M22*N22*O22*10^(-3)</f>
         <v>37.627499999999998</v>
       </c>
       <c r="M22" s="3">
@@ -2146,11 +3295,11 @@
         <v>21.428999999999998</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.776044074799998</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3.1</v>
       </c>
@@ -2171,11 +3320,11 @@
         <v>27.056000000000001</v>
       </c>
       <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>47.195926340800007</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>47.195926340800007</v>
-      </c>
-      <c r="L23" s="5">
-        <f>M23*N23*O23*10^(-3)</f>
         <v>38.1</v>
       </c>
       <c r="M23" s="4">
@@ -2194,11 +3343,11 @@
         <v>29.901</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.719645634000003</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>3.2</v>
       </c>
@@ -2219,11 +3368,11 @@
         <v>26.376999999999999</v>
       </c>
       <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>49.092787993600005</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>49.092787993600005</v>
-      </c>
-      <c r="L24" s="5">
-        <f>M24*N24*O24*10^(-3)</f>
         <v>38.517499999999998</v>
       </c>
       <c r="M24" s="3">
@@ -2242,11 +3391,11 @@
         <v>27.056000000000001</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.195926340800007</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3.3</v>
       </c>
@@ -2267,11 +3416,11 @@
         <v>24.321999999999999</v>
       </c>
       <c r="G25" s="5">
+        <f t="shared" si="2"/>
+        <v>50.911450068599997</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>50.911450068599997</v>
-      </c>
-      <c r="L25" s="5">
-        <f>M25*N25*O25*10^(-3)</f>
         <v>38.800000000000004</v>
       </c>
       <c r="M25" s="4">
@@ -2290,11 +3439,11 @@
         <v>26.376999999999999</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.092787993600005</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2303,7 +3452,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="L26" s="5">
-        <f>M26*N26*O26*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>39.435000000000002</v>
       </c>
       <c r="M26" s="3">
@@ -2322,11 +3471,11 @@
         <v>24.321999999999999</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.911450068599997</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2335,7 +3484,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -2350,7 +3499,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2405,7 +3554,7 @@
         <v>27.207209513000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2416,7 +3565,7 @@
         <v>394.51400000000001</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:D43" si="3">A33*B33*C33*10^(-3)</f>
+        <f t="shared" ref="D33:D43" si="4">A33*B33*C33*10^(-3)</f>
         <v>16.550651327999997</v>
       </c>
       <c r="E33" s="5">
@@ -2426,15 +3575,15 @@
         <v>13.013999999999999</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" ref="G33:G43" si="4">A33*E33*F33*10^(-3)</f>
+        <f t="shared" ref="G33:G43" si="5">A33*E33*F33*10^(-3)</f>
         <v>16.766252440199995</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ref="H33:H43" si="5">D33+G33</f>
+        <f t="shared" ref="H33:H43" si="6">D33+G33</f>
         <v>33.316903768199992</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2.4</v>
       </c>
@@ -2445,7 +3594,7 @@
         <v>354.12599999999998</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.0056729408</v>
       </c>
       <c r="E34" s="5">
@@ -2455,15 +3604,15 @@
         <v>12.481999999999999</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.874378313599999</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.880051254400001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2.5</v>
       </c>
@@ -2474,7 +3623,7 @@
         <v>494.44600000000003</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.761821610000002</v>
       </c>
       <c r="E35" s="5">
@@ -2484,15 +3633,15 @@
         <v>13.148</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.751554930000001</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.513376540000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2.6</v>
       </c>
@@ -2503,7 +3652,7 @@
         <v>373.83499999999998</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.922782888</v>
       </c>
       <c r="E36" s="5">
@@ -2513,15 +3662,15 @@
         <v>11.961</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4265765334000005</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37.349359421400003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2.7</v>
       </c>
@@ -2532,7 +3681,7 @@
         <v>447.47899999999998</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.473491501100003</v>
       </c>
       <c r="E37" s="5">
@@ -2542,15 +3691,15 @@
         <v>12.084</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5694388068</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.042930307900001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2.8</v>
       </c>
@@ -2561,7 +3710,7 @@
         <v>309.98099999999999</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.9459004936</v>
       </c>
       <c r="E38" s="5">
@@ -2571,15 +3720,15 @@
         <v>13.012</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3196769167999998</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.265577410399999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2.9</v>
       </c>
@@ -2590,7 +3739,7 @@
         <v>327.38600000000002</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.359584153800004</v>
       </c>
       <c r="E39" s="5">
@@ -2600,15 +3749,15 @@
         <v>12.348000000000001</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0091545036000005</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.368738657400002</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -2619,7 +3768,7 @@
         <v>480.15499999999997</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.323888614999994</v>
       </c>
       <c r="E40" s="5">
@@ -2629,15 +3778,15 @@
         <v>11.965</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9791067200000003</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.302995334999991</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>3.1</v>
       </c>
@@ -2648,7 +3797,7 @@
         <v>484.43799999999999</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.769720754399998</v>
       </c>
       <c r="E41" s="5">
@@ -2658,15 +3807,15 @@
         <v>11.711</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4240610611000002</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.193781815499996</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>3.2</v>
       </c>
@@ -2677,7 +3826,7 @@
         <v>469.90899999999999</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.390953836800001</v>
       </c>
       <c r="E42" s="5">
@@ -2687,15 +3836,15 @@
         <v>12.204000000000001</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6260414336000004</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.016995270400002</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>3.3</v>
       </c>
@@ -2706,7 +3855,7 @@
         <v>463.87599999999998</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66.096485162399986</v>
       </c>
       <c r="E43" s="5">
@@ -2716,15 +3865,15 @@
         <v>11.82</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3517919359999999</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.448277098399984</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2732,7 +3881,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +190,19 @@
     <font>
       <sz val="14"/>
       <color rgb="FF11171A"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -234,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -252,6 +264,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -383,7 +398,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>539814</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -724,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,20 +756,20 @@
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -762,7 +777,7 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -770,7 +785,7 @@
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -778,7 +793,7 @@
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -786,26 +801,31 @@
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Vdd</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>The startup energy cost is based on time before first BLE event and the turbulence after the event</t>
+  </si>
+  <si>
+    <t>Generated values from the online power profiler, the figure shows power consumption at Vopt</t>
   </si>
 </sst>
 </file>
@@ -429,6 +432,56 @@
         <a:xfrm>
           <a:off x="0" y="6786161"/>
           <a:ext cx="10058400" cy="1394367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76971</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>436162</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Bilde 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC23244B-44B2-8F4E-B4FA-7956729DDEE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12866769" y="2950506"/>
+          <a:ext cx="5477676" cy="5472414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1286,7 @@
         <v>50.911450068599997</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1242,7 +1295,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1251,17 +1304,20 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1271,7 +1327,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>1</v>
       </c>

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Vdd</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>Generated values from the online power profiler, the figure shows power consumption at Vopt</t>
+  </si>
+  <si>
+    <t>blablabla</t>
+  </si>
+  <si>
+    <t>bilder av måleoppsett</t>
+  </si>
+  <si>
+    <t>beskrivelse av gjennomføring</t>
+  </si>
+  <si>
+    <t>skriver til slutt at dette kun er målinger gjort på devkit og ikke ferdig produkty</t>
+  </si>
+  <si>
+    <t>awdd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>aw</t>
   </si>
 </sst>
 </file>
@@ -294,14 +318,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12828</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552642</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>87672</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>87671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -344,13 +368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>539814</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>173553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -394,14 +418,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>12828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>539814</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>175679</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,14 +468,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76971</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>25658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>436162</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>161506</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,941 +904,991 @@
       </c>
       <c r="E10" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>1.8</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B40" s="8">
         <v>713</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C40" s="8">
         <v>25</v>
       </c>
-      <c r="D16" s="9">
-        <f t="shared" ref="D16:D31" si="0">A16*B16*C16*10^(-3)</f>
+      <c r="D40" s="9">
+        <f t="shared" ref="D40:D55" si="0">A40*B40*C40*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>1.9</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B41" s="3">
         <v>684</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C41" s="3">
         <v>25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>32.489999999999995</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B42" s="3">
         <v>661</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C42" s="3">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D42" s="5">
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>2.1</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B43" s="3">
         <v>640</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C43" s="3">
         <v>25</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B44" s="3">
         <v>621</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C44" s="3">
         <v>25</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D44" s="5">
         <f t="shared" si="0"/>
         <v>34.155000000000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E44" s="5">
         <v>660.84</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F44" s="5">
         <v>23.172000000000001</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" ref="G20:G31" si="1">A20*E20*F20*10^(-3)</f>
+      <c r="G44" s="5">
+        <f t="shared" ref="G44:G55" si="1">A44*E44*F44*10^(-3)</f>
         <v>33.688565856000011</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B45" s="3">
         <v>603</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C45" s="3">
         <v>25</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>34.672499999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E45" s="5">
         <v>515.31299999999999</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F45" s="5">
         <v>29.44</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G45" s="5">
         <f t="shared" si="1"/>
         <v>34.892873856000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>2.4</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B46" s="3">
         <v>586</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C46" s="3">
         <v>25</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D46" s="5">
         <f t="shared" si="0"/>
         <v>35.160000000000004</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E46" s="5">
         <v>522.23199999999997</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F46" s="5">
         <v>29.119</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G46" s="5">
         <f t="shared" si="1"/>
         <v>36.496496659199991</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>2.5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B47" s="3">
         <v>570</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C47" s="3">
         <v>25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E47" s="5">
         <v>716.89400000000001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F47" s="5">
         <v>21.311</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G47" s="5">
         <f t="shared" si="1"/>
         <v>38.194320085000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>2.6</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B48" s="3">
         <v>555</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C48" s="3">
         <v>25</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>36.075000000000003</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E48" s="5">
         <v>625.13199999999995</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F48" s="5">
         <v>24.31</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G48" s="5">
         <f t="shared" si="1"/>
         <v>39.512093192000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>2.7</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B49" s="3">
         <v>542</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C49" s="3">
         <v>25</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>36.585000000000001</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E49" s="5">
         <v>655.654</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F49" s="5">
         <v>23.148</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G49" s="5">
         <f t="shared" si="1"/>
         <v>40.9781127384</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>2.8</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B50" s="3">
         <v>530</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C50" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>37.1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E50" s="5">
         <v>691.92700000000002</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F50" s="5">
         <v>21.962</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G50" s="5">
         <f t="shared" si="1"/>
         <v>42.549082167199998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>2.9</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B51" s="3">
         <v>519</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C51" s="3">
         <v>25</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>37.627499999999998</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E51" s="5">
         <v>704.428</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F51" s="5">
         <v>21.428999999999998</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G51" s="5">
         <f t="shared" si="1"/>
         <v>43.776044074799998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B52" s="3">
         <v>508</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C52" s="3">
         <v>25</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>38.1</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E52" s="5">
         <v>509.678</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F52" s="5">
         <v>29.901</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G52" s="5">
         <f t="shared" si="1"/>
         <v>45.719645634000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>3.1</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B53" s="3">
         <v>497</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C53" s="3">
         <v>25</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>38.517499999999998</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E53" s="5">
         <v>562.70299999999997</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F53" s="5">
         <v>27.056000000000001</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G53" s="5">
         <f t="shared" si="1"/>
         <v>47.195926340800007</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>3.2</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B54" s="3">
         <v>485</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C54" s="3">
         <v>25</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
         <v>38.800000000000004</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E54" s="5">
         <v>581.62400000000002</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F54" s="5">
         <v>26.376999999999999</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G54" s="5">
         <f t="shared" si="1"/>
         <v>49.092787993600005</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>3.3</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B55" s="3">
         <v>478</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C55" s="3">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>39.435000000000002</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E55" s="5">
         <v>634.31100000000004</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F55" s="5">
         <v>24.321999999999999</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G55" s="5">
         <f t="shared" si="1"/>
         <v>50.911450068599997</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E73" t="s">
         <v>3</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G73" t="s">
         <v>4</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B74" s="5">
         <v>11.273999999999999</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C74" s="5">
         <v>487.46499999999997</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" ref="D50:D61" si="2">A50*B50*C50*10^(-3)</f>
+      <c r="D74" s="5">
+        <f t="shared" ref="D74:D85" si="2">A74*B74*C74*10^(-3)</f>
         <v>12.090496902000002</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E74" s="5">
         <v>517.68499999999995</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F74" s="5">
         <v>13.273</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" ref="G50:G61" si="3">A50*E50*F50*10^(-3)</f>
+      <c r="G74" s="5">
+        <f t="shared" ref="G74:G85" si="3">A74*E74*F74*10^(-3)</f>
         <v>15.116712610999999</v>
       </c>
-      <c r="H50" s="5">
-        <f>D50+G50</f>
+      <c r="H74" s="5">
+        <f>D74+G74</f>
         <v>27.207209513000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B75" s="5">
         <v>18.239999999999998</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C75" s="5">
         <v>394.51400000000001</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D75" s="5">
         <f t="shared" si="2"/>
         <v>16.550651327999997</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E75" s="5">
         <v>560.14099999999996</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F75" s="5">
         <v>13.013999999999999</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G75" s="5">
         <f t="shared" si="3"/>
         <v>16.766252440199995</v>
       </c>
-      <c r="H51" s="5">
-        <f t="shared" ref="H51:H61" si="4">D51+G51</f>
+      <c r="H75" s="5">
+        <f t="shared" ref="H75:H85" si="4">D75+G75</f>
         <v>33.316903768199992</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>2.4</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B76" s="5">
         <v>25.891999999999999</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C76" s="5">
         <v>354.12599999999998</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D76" s="5">
         <f t="shared" si="2"/>
         <v>22.0056729408</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E76" s="5">
         <v>363.00200000000001</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F76" s="5">
         <v>12.481999999999999</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G76" s="5">
         <f t="shared" si="3"/>
         <v>10.874378313599999</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H76" s="5">
         <f t="shared" si="4"/>
         <v>32.880051254400001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>2.5</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B77" s="5">
         <v>18.414000000000001</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C77" s="5">
         <v>494.44600000000003</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D77" s="5">
         <f t="shared" si="2"/>
         <v>22.761821610000002</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E77" s="5">
         <v>387.93900000000002</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F77" s="5">
         <v>13.148</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G77" s="5">
         <f t="shared" si="3"/>
         <v>12.751554930000001</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H77" s="5">
         <f t="shared" si="4"/>
         <v>35.513376540000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>2.6</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B78" s="5">
         <v>28.728000000000002</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C78" s="5">
         <v>373.83499999999998</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D78" s="5">
         <f t="shared" si="2"/>
         <v>27.922782888</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E78" s="5">
         <v>303.11900000000003</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F78" s="5">
         <v>11.961</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G78" s="5">
         <f t="shared" si="3"/>
         <v>9.4265765334000005</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H78" s="5">
         <f t="shared" si="4"/>
         <v>37.349359421400003</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>2.7</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B79" s="5">
         <v>23.567</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C79" s="5">
         <v>447.47899999999998</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D79" s="5">
         <f t="shared" si="2"/>
         <v>28.473491501100003</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E79" s="5">
         <v>201.351</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F79" s="5">
         <v>12.084</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G79" s="5">
         <f t="shared" si="3"/>
         <v>6.5694388068</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H79" s="5">
         <f t="shared" si="4"/>
         <v>35.042930307900001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>2.8</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B80" s="5">
         <v>34.502000000000002</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C80" s="5">
         <v>309.98099999999999</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D80" s="5">
         <f t="shared" si="2"/>
         <v>29.9459004936</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E80" s="5">
         <v>118.563</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F80" s="5">
         <v>13.012</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G80" s="5">
         <f t="shared" si="3"/>
         <v>4.3196769167999998</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H80" s="5">
         <f t="shared" si="4"/>
         <v>34.265577410399999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>2.9</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B81" s="5">
         <v>31.977</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C81" s="5">
         <v>327.38600000000002</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D81" s="5">
         <f t="shared" si="2"/>
         <v>30.359584153800004</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E81" s="5">
         <v>84.033000000000001</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F81" s="5">
         <v>12.348000000000001</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G81" s="5">
         <f t="shared" si="3"/>
         <v>3.0091545036000005</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H81" s="5">
         <f t="shared" si="4"/>
         <v>33.368738657400002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
         <v>3</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B82" s="11">
         <v>25.911000000000001</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C82" s="11">
         <v>480.15499999999997</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="2"/>
         <v>37.323888614999994</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E82" s="11">
         <v>55.136000000000003</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F82" s="11">
         <v>11.965</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G82" s="11">
         <f t="shared" si="3"/>
         <v>1.9791067200000003</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H82" s="11">
         <f t="shared" si="4"/>
         <v>39.302995334999991</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>3.1</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B83" s="5">
         <v>27.148</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C83" s="5">
         <v>484.43799999999999</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D83" s="5">
         <f t="shared" si="2"/>
         <v>40.769720754399998</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E83" s="5">
         <v>66.771000000000001</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F83" s="5">
         <v>11.711</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G83" s="5">
         <f t="shared" si="3"/>
         <v>2.4240610611000002</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H83" s="5">
         <f t="shared" si="4"/>
         <v>43.193781815499996</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>3.2</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B84" s="5">
         <v>30.186</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C84" s="5">
         <v>469.90899999999999</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D84" s="5">
         <f t="shared" si="2"/>
         <v>45.390953836800001</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E84" s="5">
         <v>41.637</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F84" s="5">
         <v>12.204000000000001</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G84" s="5">
         <f t="shared" si="3"/>
         <v>1.6260414336000004</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H84" s="5">
         <f t="shared" si="4"/>
         <v>47.016995270400002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>3.3</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B85" s="5">
         <v>43.177999999999997</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C85" s="5">
         <v>463.87599999999998</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D85" s="5">
         <f t="shared" si="2"/>
         <v>66.096485162399986</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E85" s="5">
         <v>34.655999999999999</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F85" s="5">
         <v>11.82</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G85" s="5">
         <f t="shared" si="3"/>
         <v>1.3517919359999999</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H85" s="5">
         <f t="shared" si="4"/>
         <v>67.448277098399984</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B118" s="13">
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B119" s="13">
         <v>713</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B120" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B121" s="13">
         <v>32.1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B122" s="12">
         <v>39.9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f>B97+B98</f>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f>B121+B122</f>
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f>B98+B97+B97</f>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f>B122+B121+B121</f>
         <v>104.1</v>
       </c>
     </row>

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -1693,7 +1693,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10673132" y="13007499"/>
+          <a:off x="14726870" y="13007499"/>
           <a:ext cx="10089379" cy="1398662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,7 +1757,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10673131" y="11288889"/>
+          <a:off x="14726869" y="11288889"/>
           <a:ext cx="10058400" cy="1420486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2728,7 +2728,7 @@
         <v>74.759487962121469</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" ref="E58:E67" si="5">D58-G15</f>
+        <f>D58-G15</f>
         <v>43.741273757247114</v>
       </c>
       <c r="F58" s="36"/>
@@ -2750,7 +2750,7 @@
         <v>78.494956679163877</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" si="5"/>
+        <f>D59-G16</f>
         <v>45.940641714527032</v>
       </c>
       <c r="F59" s="37"/>
@@ -2772,7 +2772,7 @@
         <v>84.338571134400013</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="5"/>
+        <f>D60-G17</f>
         <v>50.650005278400002</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>86.332326747399989</v>
       </c>
       <c r="E61" s="28">
-        <f t="shared" si="5"/>
+        <f>D61-G18</f>
         <v>51.439452891399988</v>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
         <v>90.187775999999999</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" si="5"/>
+        <f>D62-G19</f>
         <v>53.691279340800008</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
         <v>95.423749999999998</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="5"/>
+        <f>D63-G20</f>
         <v>57.229429914999997</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
         <v>90.105193214400003</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="5"/>
+        <f>D64-G21</f>
         <v>50.593100022400002</v>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
         <v>98.676778068000004</v>
       </c>
       <c r="E65" s="28">
-        <f t="shared" si="5"/>
+        <f>D65-G22</f>
         <v>57.698665329600004</v>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
         <v>102.95733105000001</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" si="5"/>
+        <f>D66-G23</f>
         <v>60.408248882800009</v>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
         <v>109.12844999999999</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="5"/>
+        <f>D67-G24</f>
         <v>65.352405925199989</v>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
         <v>38.119</v>
       </c>
       <c r="D27" s="28">
-        <f>A27*B27*C27*10^(-3)</f>
+        <f t="shared" ref="D27:D32" si="3">A27*B27*C27*10^(-3)</f>
         <v>93.109469400000009</v>
       </c>
       <c r="E27" s="14">
@@ -3369,7 +3369,7 @@
         <v>31.321999999999999</v>
       </c>
       <c r="D28" s="28">
-        <f>A28*B28*C28*10^(-3)</f>
+        <f t="shared" si="3"/>
         <v>96.471760000000003</v>
       </c>
       <c r="E28" s="14">
@@ -3388,7 +3388,7 @@
         <v>31.69</v>
       </c>
       <c r="D29" s="28">
-        <f>A29*B29*C29*10^(-3)</f>
+        <f t="shared" si="3"/>
         <v>93.862611000000001</v>
       </c>
       <c r="E29" s="14">
@@ -3409,7 +3409,7 @@
         <v>29.541</v>
       </c>
       <c r="D30" s="28">
-        <f>A30*B30*C30*10^(-3)</f>
+        <f t="shared" si="3"/>
         <v>87.89629140000001</v>
       </c>
       <c r="E30" s="14">
@@ -3430,7 +3430,7 @@
         <v>36.415999999999997</v>
       </c>
       <c r="D31" s="28">
-        <f>A31*B31*C31*10^(-3)</f>
+        <f t="shared" si="3"/>
         <v>91.101907199999999</v>
       </c>
       <c r="E31" s="14">
@@ -3451,7 +3451,7 @@
         <v>32.243000000000002</v>
       </c>
       <c r="D32" s="28">
-        <f>A32*B32*C32*10^(-3)</f>
+        <f t="shared" si="3"/>
         <v>99.543659133600002</v>
       </c>
       <c r="E32" s="14">

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,14 @@
     <sheet name="RC" sheetId="5" r:id="rId2"/>
     <sheet name="Comparison clocks" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.3" hidden="1">'Comparison clocks'!$C$23:$C$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Comparison clocks'!$D$23:$D$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Comparison clocks'!$J$23:$J$28</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Comparison clocks'!$C$23:$C$28</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Comparison clocks'!$D$23:$D$28</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Comparison clocks'!$J$23:$J$28</definedName>
+  </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -328,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,7 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1029,7 +1036,935 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>1,8v</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 MHZ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison clocks'!$C$7:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vopt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average current in μA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time in ms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy in μJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Charge in μC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Startup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison clocks'!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA72-6E47-8532-59BCB217221F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison clocks'!$C$7:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vopt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average current in μA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time in ms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy in μJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Charge in μC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Startup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison clocks'!$J$7:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.136080000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#\ ##0.0">
+                  <c:v>15.075600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA72-6E47-8532-59BCB217221F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1956409215"/>
+        <c:axId val="1919871407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1956409215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1919871407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1919871407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956409215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>DK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> voltage 3V</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32 MHZ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison clocks'!$C$23:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vopt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average current in μA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time in ms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy in μJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Charge in μC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Startup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison clocks'!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>629.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>41.735850000000006</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>13.911950000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-929C-B24A-9023-7D7C2D0B62B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison clocks'!$C$23:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Vopt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average current in μA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time in ms</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy in μJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Charge in μC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Startup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison clocks'!$J$23:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.778560000000013</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#\ ##0.0">
+                  <c:v>15.259520000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-929C-B24A-9023-7D7C2D0B62B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1918994799"/>
+        <c:axId val="1954934687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1918994799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954934687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1954934687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918994799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1232,6 +2167,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1815,6 +3756,83 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739B4BEC-1920-3C4A-8F9B-9762F0ED2B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5C6ED4-AE7E-894C-83C0-8C21E17066C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2119,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A24" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3178,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D134A-158A-9743-B6C5-ABF24CECB8FF}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A68" sqref="A67:F68"/>
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3295,22 +5313,22 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51">
+      <c r="A13" s="40">
         <v>1.8</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="38">
         <v>591.20708888888896</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="38">
         <v>25.496355555555599</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="38">
         <f>A13*B13*C13*10^(-3)</f>
         <v>27.132527061496937</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="52">
+      <c r="A14" s="51">
         <v>1.9</v>
       </c>
       <c r="B14" s="20">
@@ -3325,7 +5343,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>2</v>
       </c>
       <c r="B15" s="20">
@@ -3340,7 +5358,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="52">
+      <c r="A16" s="51">
         <v>2.1</v>
       </c>
       <c r="B16" s="20">
@@ -3484,13 +5502,13 @@
       <c r="A25" s="48">
         <v>3</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <v>563.50599999999997</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="52">
         <v>26.411999999999999</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="53">
         <f t="shared" si="0"/>
         <v>44.649961415999996</v>
       </c>
@@ -3564,20 +5582,20 @@
       <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="51">
+      <c r="A32" s="40">
         <v>1.8</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="38">
         <v>1299.2929999999999</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="38">
         <v>38.535595238095198</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="38">
         <f>A32*B32*C32*10^(-3)</f>
         <v>90.124252458642744</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="38">
         <f>D32-D13</f>
         <v>62.991725397145807</v>
       </c>
@@ -3585,7 +5603,7 @@
       <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="52">
+      <c r="A33" s="51">
         <v>1.9</v>
       </c>
       <c r="B33" s="20">
@@ -3604,7 +5622,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="52">
+      <c r="A34" s="51">
         <v>2</v>
       </c>
       <c r="B34" s="20">
@@ -3623,7 +5641,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="52">
+      <c r="A35" s="51">
         <v>2.1</v>
       </c>
       <c r="B35" s="20">
@@ -3964,7 +5982,7 @@
   <dimension ref="C4:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4230,5 +6248,6 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" activeTab="2" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="32MHZ" sheetId="3" r:id="rId1"/>
     <sheet name="RC" sheetId="5" r:id="rId2"/>
     <sheet name="Comparison clocks" sheetId="6" r:id="rId3"/>
+    <sheet name="Ark1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.3" hidden="1">'Comparison clocks'!$C$23:$C$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Comparison clocks'!$D$23:$D$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Comparison clocks'!$J$23:$J$28</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Comparison clocks'!$C$23:$C$28</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Comparison clocks'!$D$23:$D$28</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Comparison clocks'!$J$23:$J$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Comparison clocks'!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Comparison clocks'!$D$24:$D$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Comparison clocks'!$I$24:$I$29</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Comparison clocks'!$C$24:$C$29</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Comparison clocks'!$D$24:$D$29</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Comparison clocks'!$I$24:$I$29</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>Vdd</t>
   </si>
@@ -181,6 +182,30 @@
   </si>
   <si>
     <t>OUTPUT ENERGY DK VOLTAGE</t>
+  </si>
+  <si>
+    <t>32 MHZ</t>
+  </si>
+  <si>
+    <t>KEYDATA</t>
+  </si>
+  <si>
+    <t>Avg current</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>startup cost in μJ</t>
+  </si>
+  <si>
+    <t>STARTUP based on measurements</t>
+  </si>
+  <si>
+    <t>BLE event based on OPP</t>
   </si>
 </sst>
 </file>
@@ -336,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -376,14 +401,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -391,6 +413,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -683,16 +707,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27.941694996776516</c:v>
+                  <c:v>28.772786254389313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.480672617918181</c:v>
+                  <c:v>30.235851227792786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.018214204874358</c:v>
+                  <c:v>31.68112514730208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.554314964636845</c:v>
+                  <c:v>33.108077615125275</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>33.688565856000011</c:v>
@@ -1071,7 +1095,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nb-NO"/>
-              <a:t>1,8v</a:t>
+              <a:t>1,8V</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1164,26 +1188,26 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>620.79999999999995</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.8</c:v>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>32.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>17.824999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.299999999999997</c:v>
+                  <c:v>33.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA72-6E47-8532-59BCB217221F}"/>
+              <c16:uniqueId val="{00000000-CAEB-F341-B5FF-F30137ED1787}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,7 +1255,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison clocks'!$J$7:$J$12</c:f>
+              <c:f>'Comparison clocks'!$I$7:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1251,14 +1275,14 @@
                   <c:v>15.075600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.3</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA72-6E47-8532-59BCB217221F}"/>
+              <c16:uniqueId val="{00000001-CAEB-F341-B5FF-F30137ED1787}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1272,11 +1296,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1956409215"/>
-        <c:axId val="1919871407"/>
+        <c:axId val="1324880288"/>
+        <c:axId val="1370520880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1956409215"/>
+        <c:axId val="1324880288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1343,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1919871407"/>
+        <c:crossAx val="1370520880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1919871407"/>
+        <c:axId val="1370520880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1402,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1956409215"/>
+        <c:crossAx val="1324880288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1493,11 +1517,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nb-NO"/>
-              <a:t>DK</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> voltage 3V</a:t>
+              <a:t>3,3V</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1556,7 +1576,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparison clocks'!$C$23:$C$28</c:f>
+              <c:f>'Comparison clocks'!$C$24:$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1582,34 +1602,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison clocks'!$D$23:$D$28</c:f>
+              <c:f>'Comparison clocks'!$D$24:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>629.5</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0">
-                  <c:v>41.735850000000006</c:v>
+                  <c:v>39.435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0">
-                  <c:v>13.911950000000001</c:v>
+                  <c:v>11.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.6</c:v>
+                  <c:v>99.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-929C-B24A-9023-7D7C2D0B62B9}"/>
+              <c16:uniqueId val="{00000000-3E12-BE43-B191-FB0720D28A16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1631,7 +1651,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparison clocks'!$C$23:$C$28</c:f>
+              <c:f>'Comparison clocks'!$C$24:$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1657,12 +1677,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison clocks'!$J$23:$J$28</c:f>
+              <c:f>'Comparison clocks'!$I$24:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>723.2</c:v>
@@ -1671,20 +1691,20 @@
                   <c:v>21.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.778560000000013</c:v>
+                  <c:v>50.356416000000003</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#\ ##0.0">
                   <c:v>15.259520000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.3</c:v>
+                  <c:v>68.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-929C-B24A-9023-7D7C2D0B62B9}"/>
+              <c16:uniqueId val="{00000001-3E12-BE43-B191-FB0720D28A16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1698,11 +1718,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1918994799"/>
-        <c:axId val="1954934687"/>
+        <c:axId val="1340004416"/>
+        <c:axId val="1340006112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1918994799"/>
+        <c:axId val="1340004416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1765,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954934687"/>
+        <c:crossAx val="1340006112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1954934687"/>
+        <c:axId val="1340006112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1824,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918994799"/>
+        <c:crossAx val="1340004416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3765,23 +3785,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739B4BEC-1920-3C4A-8F9B-9762F0ED2B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F1258F-CBA0-6040-B6F2-7DD49244E65D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,23 +3821,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3">
+        <xdr:cNvPr id="5" name="Diagram 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5C6ED4-AE7E-894C-83C0-8C21E17066C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F83081A-019D-3B45-9196-5777C5C24151}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4135,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F90" sqref="F85:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4277,116 +4297,116 @@
       <c r="A13" s="39">
         <v>1.8</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="52">
         <v>713</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="52">
         <v>25</v>
       </c>
-      <c r="D13" s="47">
-        <f t="shared" ref="D13:D25" si="0">A13*B13*C13*10^(-3)</f>
+      <c r="D13" s="38">
+        <f t="shared" ref="D13:D26" si="0">A13*B13*C13*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
       <c r="E13" s="38">
-        <v>620.82916200466195</v>
+        <v>595.07036969697003</v>
       </c>
       <c r="F13" s="38">
-        <v>25.003921911421902</v>
+        <v>26.862169696969701</v>
       </c>
       <c r="G13" s="38">
         <f>A13*E13*F13*10^(-3)</f>
-        <v>27.941694996776516</v>
+        <v>28.772786254389313</v>
       </c>
       <c r="H13" s="24">
         <f>ABS(D13-G13)/D13</f>
-        <v>0.12913526580095014</v>
+        <v>0.10323246830639513</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>1.9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>684</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>25</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>32.489999999999995</v>
       </c>
       <c r="E14" s="20">
-        <v>620.22202214452204</v>
-      </c>
-      <c r="F14" s="21">
-        <v>25.017079254079299</v>
+        <v>598.37529090909095</v>
+      </c>
+      <c r="F14" s="20">
+        <v>26.5946909090909</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ref="G14:G16" si="1">A14*E14*F14*10^(-3)</f>
-        <v>29.480672617918181</v>
+        <v>30.235851227792786</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" ref="H14:H25" si="2">ABS(D14-G14)/D14</f>
-        <v>9.2623188121939509E-2</v>
+        <f t="shared" ref="H14:H26" si="2">ABS(D14-G14)/D14</f>
+        <v>6.9379771382185582E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>661</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>25</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
       <c r="E15" s="20">
-        <v>619.61488228438202</v>
-      </c>
-      <c r="F15" s="21">
-        <v>25.0302365967366</v>
+        <v>601.68021212121198</v>
+      </c>
+      <c r="F15" s="20">
+        <v>26.327212121212099</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>31.018214204874358</v>
+        <v>31.68112514730208</v>
       </c>
       <c r="H15" s="24">
         <f t="shared" si="2"/>
-        <v>6.1476120881259894E-2</v>
+        <v>4.1418301140632913E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>2.1</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>640</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>25</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="E16" s="20">
-        <v>619.007742424242</v>
+      <c r="E16" s="21">
+        <v>604.98513333333301</v>
       </c>
       <c r="F16" s="21">
-        <v>25.043393939393901</v>
+        <v>26.059733333333298</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="1"/>
-        <v>32.554314964636845</v>
+        <v>33.108077615125275</v>
       </c>
       <c r="H16" s="24">
         <f t="shared" si="2"/>
-        <v>3.1121578433427277E-2</v>
+        <v>1.4640547168890669E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4669,11 +4689,18 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8">
-        <v>3</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+        <v>3.3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>478</v>
+      </c>
+      <c r="C26" s="8">
+        <v>25</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="0"/>
+        <v>39.435000000000002</v>
+      </c>
       <c r="E26" s="11">
         <v>629.524</v>
       </c>
@@ -4682,7 +4709,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>41.726109768000001</v>
+        <v>45.898720744800002</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="2"/>
+        <v>0.1639082222594142</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
@@ -4750,41 +4781,41 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="40">
+      <c r="A56" s="39">
         <v>1.8</v>
       </c>
-      <c r="B56" s="38">
-        <v>77.577755555555598</v>
-      </c>
-      <c r="C56" s="38">
-        <v>481.84173333333302</v>
+      <c r="B56" s="44">
+        <v>70.824230303030305</v>
+      </c>
+      <c r="C56" s="44">
+        <v>491.664763636364</v>
       </c>
       <c r="D56" s="38">
         <f>A56*B56*C56*10^(-3)</f>
-        <v>67.284360368997341</v>
+        <v>62.679201213000248</v>
       </c>
       <c r="E56" s="38">
         <f t="shared" ref="E56:E68" si="4">D56-G13</f>
-        <v>39.342665372220821</v>
+        <v>33.906414958610938</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="12">
         <v>1.9</v>
       </c>
-      <c r="B57" s="20">
-        <v>77.350605555555603</v>
-      </c>
-      <c r="C57" s="20">
-        <v>483.25793333333303</v>
+      <c r="B57" s="14">
+        <v>71.610109090909106</v>
+      </c>
+      <c r="C57" s="14">
+        <v>491.60750909090899</v>
       </c>
       <c r="D57" s="20">
         <f t="shared" ref="D57:D67" si="5">A57*B57*C57*10^(-3)</f>
-        <v>71.02255818743329</v>
+        <v>66.887727976229158</v>
       </c>
       <c r="E57" s="20">
         <f t="shared" si="4"/>
-        <v>41.541885569515109</v>
+        <v>36.651876748436372</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -4794,19 +4825,19 @@
       <c r="A58" s="27">
         <v>2</v>
       </c>
-      <c r="B58" s="20">
-        <v>77.123455555555594</v>
-      </c>
-      <c r="C58" s="20">
-        <v>484.67413333333297</v>
+      <c r="B58" s="26">
+        <v>72.395987878787906</v>
+      </c>
+      <c r="C58" s="26">
+        <v>491.550254545455</v>
       </c>
       <c r="D58" s="20">
         <f t="shared" si="5"/>
-        <v>74.759487962121469</v>
+        <v>71.172532539775744</v>
       </c>
       <c r="E58" s="21">
         <f t="shared" si="4"/>
-        <v>43.741273757247114</v>
+        <v>39.491407392473661</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -4816,19 +4847,19 @@
       <c r="A59" s="12">
         <v>2.1</v>
       </c>
-      <c r="B59" s="21">
-        <v>76.8963055555556</v>
-      </c>
-      <c r="C59" s="21">
-        <v>486.09033333333298</v>
+      <c r="B59" s="11">
+        <v>73.181866666666707</v>
+      </c>
+      <c r="C59" s="11">
+        <v>491.49299999999999</v>
       </c>
       <c r="D59" s="20">
         <f t="shared" si="5"/>
-        <v>78.494956679163877</v>
+        <v>75.533587906560044</v>
       </c>
       <c r="E59" s="20">
         <f t="shared" si="4"/>
-        <v>45.940641714527032</v>
+        <v>42.425510291434769</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="37"/>
@@ -5007,7 +5038,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="B69" s="11">
         <v>93.197000000000003</v>
@@ -5017,11 +5048,11 @@
       </c>
       <c r="D69" s="29">
         <f>A69*B69*C69*10^(-3)</f>
-        <v>132.31336524899999</v>
+        <v>145.54470177389999</v>
       </c>
       <c r="E69" s="29">
         <f>D69-G26</f>
-        <v>90.587255480999985</v>
+        <v>99.645981029099985</v>
       </c>
       <c r="F69" t="s">
         <v>47</v>
@@ -5067,121 +5098,133 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="41" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="41">
+      <c r="B85" s="40">
         <v>1.8</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E85" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="41" t="s">
+      <c r="F85" s="40">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="41">
-        <v>620.79999999999995</v>
-      </c>
-      <c r="E82" s="41" t="s">
+      <c r="B86" s="40">
+        <v>713</v>
+      </c>
+      <c r="E86" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F82" s="41">
-        <v>629.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="41" t="s">
+      <c r="F86" s="40">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="41">
+      <c r="B87" s="40">
         <v>25</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E87" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="41">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="41" t="s">
+      <c r="F87" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="41">
-        <v>27.9</v>
-      </c>
-      <c r="E84" s="41" t="s">
+      <c r="B88" s="42">
+        <f>B85*B86*B87*10^(-3)</f>
+        <v>32.085000000000001</v>
+      </c>
+      <c r="E88" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="44">
-        <f>F81*F82*F83*10^(-3)</f>
-        <v>41.735850000000006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="41" t="s">
+      <c r="F88" s="42">
+        <f>F85*F86*F87*10^(-3)</f>
+        <v>39.435000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="41">
-        <v>17.8</v>
-      </c>
-      <c r="E85" s="41" t="s">
+      <c r="B89" s="42">
+        <f>B86*B87*10^(-3)</f>
+        <v>17.824999999999999</v>
+      </c>
+      <c r="E89" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="44">
-        <f>F82*F83*10^(-3)</f>
-        <v>13.911950000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="41" t="s">
+      <c r="F89" s="42">
+        <f>F86*F87*10^(-3)</f>
+        <v>11.950000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="41">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="E86" s="41" t="s">
+      <c r="B90" s="40">
+        <v>33.9</v>
+      </c>
+      <c r="E90" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="41">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="F90" s="40">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
         <v>9</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="42">
-        <f>B84+B86</f>
-        <v>67.199999999999989</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="41">
+        <f>B88+B90</f>
+        <v>65.984999999999999</v>
+      </c>
+      <c r="B93" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="43">
-        <f>F84+F86</f>
-        <v>132.33584999999999</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E93" s="41">
+        <f>F88+F90</f>
+        <v>139.035</v>
+      </c>
+      <c r="F93" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5194,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D134A-158A-9743-B6C5-ABF24CECB8FF}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A20" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E56" sqref="E51:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5313,7 +5356,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>1.8</v>
       </c>
       <c r="B13" s="38">
@@ -5328,7 +5371,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51">
+      <c r="A14" s="48">
         <v>1.9</v>
       </c>
       <c r="B14" s="20">
@@ -5343,7 +5386,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51">
+      <c r="A15" s="48">
         <v>2</v>
       </c>
       <c r="B15" s="20">
@@ -5358,7 +5401,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="51">
+      <c r="A16" s="48">
         <v>2.1</v>
       </c>
       <c r="B16" s="20">
@@ -5499,23 +5542,23 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="48">
+      <c r="A25" s="45">
         <v>3</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="49">
         <v>563.50599999999997</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="49">
         <v>26.411999999999999</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="50">
         <f t="shared" si="0"/>
         <v>44.649961415999996</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="B26" s="14">
         <v>723.22</v>
@@ -5524,8 +5567,8 @@
         <v>21.084</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="0"/>
-        <v>45.745111439999995</v>
+        <f>A26*B26*C26*10^(-3)</f>
+        <v>50.319622584000001</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>47</v>
@@ -5540,10 +5583,10 @@
       <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="50"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:12">
       <c r="J29" s="19"/>
@@ -5582,7 +5625,7 @@
       <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="40">
+      <c r="A32" s="39">
         <v>1.8</v>
       </c>
       <c r="B32" s="38">
@@ -5603,7 +5646,7 @@
       <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="51">
+      <c r="A33" s="48">
         <v>1.9</v>
       </c>
       <c r="B33" s="20">
@@ -5622,7 +5665,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="51">
+      <c r="A34" s="48">
         <v>2</v>
       </c>
       <c r="B34" s="20">
@@ -5641,7 +5684,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="51">
+      <c r="A35" s="48">
         <v>2.1</v>
       </c>
       <c r="B35" s="20">
@@ -5832,7 +5875,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="B45" s="11">
         <v>1027</v>
@@ -5842,11 +5885,11 @@
       </c>
       <c r="D45" s="28">
         <f>A45*B45*C45*10^(-3)</f>
-        <v>108.08148</v>
+        <v>118.889628</v>
       </c>
       <c r="E45" s="28">
         <f>D45-D26</f>
-        <v>62.336368560000004</v>
+        <v>68.570005416000001</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
@@ -5857,118 +5900,118 @@
         <v>46</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="40">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="42">
+        <v>591.20000000000005</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="42">
+        <v>723.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="42">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="42">
+        <f>B51*B52*B53*10^(-3)</f>
+        <v>27.136080000000003</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="42">
+        <f>E51*E52*E53*10^(-3)</f>
+        <v>50.356416000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="43">
+        <f>B52*B53*10^(-3)</f>
+        <v>15.075600000000001</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="43">
+        <f>E52*E53*10^(-3)</f>
+        <v>15.259520000000002</v>
+      </c>
+    </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="41">
-        <v>1.8</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="41">
-        <v>3</v>
+      <c r="A56" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="42">
+        <v>63</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="42">
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="44">
-        <v>591.20000000000005</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="44">
-        <v>723.2</v>
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="44">
-        <v>25.5</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="44">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="44">
-        <f>B57*B58*B59*10^(-3)</f>
-        <v>27.136080000000003</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="44">
-        <f>E57*E58*E59*10^(-3)</f>
-        <v>45.778560000000013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="45">
-        <f>B58*B59*10^(-3)</f>
-        <v>15.075600000000001</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="45">
-        <f>E58*E59*10^(-3)</f>
-        <v>15.259520000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="44">
-        <v>66.3</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="44">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="43">
-        <f>B60+B62</f>
-        <v>93.436080000000004</v>
-      </c>
-      <c r="D65" s="43">
-        <f>E60+E62</f>
-        <v>108.07856000000001</v>
+      <c r="A59" s="41">
+        <f>B54+B56</f>
+        <v>90.136080000000007</v>
+      </c>
+      <c r="D59" s="41">
+        <f>E54+E56</f>
+        <v>118.95641599999999</v>
       </c>
     </row>
   </sheetData>
@@ -5979,275 +6022,342 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693DC18E-E3EB-E54E-87DC-25051C3D0F5D}">
-  <dimension ref="C4:J31"/>
+  <dimension ref="C4:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:9">
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="3:9">
+      <c r="C7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>1.8</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="41">
+      <c r="I7" s="40">
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="3:9">
+      <c r="C8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="41">
-        <v>620.79999999999995</v>
-      </c>
-      <c r="I8" s="41" t="s">
+      <c r="D8" s="40">
+        <v>713</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="44">
+      <c r="I8" s="42">
         <v>591.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="41" t="s">
+    <row r="9" spans="3:9">
+      <c r="C9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>25</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="44">
+      <c r="I9" s="42">
         <v>25.5</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="41" t="s">
+    <row r="10" spans="3:9">
+      <c r="C10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="41">
-        <v>27.9</v>
-      </c>
-      <c r="I10" s="41" t="s">
+      <c r="D10" s="42">
+        <f>D7*D8*D9*10^(-3)</f>
+        <v>32.085000000000001</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="44">
-        <f>J7*J8*J9*10^(-3)</f>
+      <c r="I10" s="42">
+        <f>I7*I8*I9*10^(-3)</f>
         <v>27.136080000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="41" t="s">
+    <row r="11" spans="3:9">
+      <c r="C11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="41">
-        <v>17.8</v>
-      </c>
-      <c r="I11" s="41" t="s">
+      <c r="D11" s="42">
+        <f>D8*D9*10^(-3)</f>
+        <v>17.824999999999999</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="45">
-        <f>J8*J9*10^(-3)</f>
+      <c r="I11" s="43">
+        <f>I8*I9*10^(-3)</f>
         <v>15.075600000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="41" t="s">
+    <row r="12" spans="3:9">
+      <c r="C12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I12" s="41" t="s">
+      <c r="D12" s="40">
+        <v>33.9</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="44">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="I12" s="42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="42">
+    <row r="15" spans="3:9">
+      <c r="C15" s="41">
         <f>D10+D12</f>
-        <v>67.199999999999989</v>
+        <v>65.984999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="43">
-        <f>J10+J12</f>
-        <v>93.436080000000004</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="41">
+        <f>I10+I12</f>
+        <v>90.136080000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="40">
+        <v>3.3</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="40">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="40">
+        <v>478</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="42">
+        <v>723.2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="40">
+        <v>25</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="42">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="42">
+        <f>D24*D25*D26*10^(-3)</f>
+        <v>39.435000000000002</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="42">
+        <f>I24*I25*I26*10^(-3)</f>
+        <v>50.356416000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="42">
+        <f>D25*D26*10^(-3)</f>
+        <v>11.950000000000001</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="43">
+        <f>I25*I26*10^(-3)</f>
+        <v>15.259520000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40">
+        <v>99.6</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="41">
+        <f>D27+D29</f>
+        <v>139.035</v>
+      </c>
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="41">
-        <v>3</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="41">
-        <v>629.5</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="44">
-        <v>723.2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="41">
-        <v>22.1</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="44">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="44">
-        <f>D23*D24*D25*10^(-3)</f>
-        <v>41.735850000000006</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="44">
-        <f>J23*J24*J25*10^(-3)</f>
-        <v>45.778560000000013</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="44">
-        <f>D24*D25*10^(-3)</f>
-        <v>13.911950000000001</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="45">
-        <f>J24*J25*10^(-3)</f>
-        <v>15.259520000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="41">
-        <v>90.6</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="44">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="43">
-        <f>D26+D28</f>
-        <v>132.33584999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="43">
-        <f>J26+J28</f>
-        <v>108.07856000000001</v>
-      </c>
-      <c r="J31" t="s">
-        <v>40</v>
+      <c r="H32" s="41">
+        <f>I27+I29</f>
+        <v>118.95641599999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4E9C03-A574-304D-90EF-47BBCEB2289F}">
+  <dimension ref="B4:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>1.8</v>
+      </c>
+      <c r="C7">
+        <v>713</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <f>B7*C7*D7*10^(-3)</f>
+        <v>32.085000000000001</v>
+      </c>
+      <c r="F7">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <f>E7+F7</f>
+        <v>65.984999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
 </file>
--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="32MHZ" sheetId="3" r:id="rId1"/>
@@ -17,14 +17,6 @@
     <sheet name="Comparison clocks" sheetId="6" r:id="rId3"/>
     <sheet name="Ark1" sheetId="7" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.3" hidden="1">'Comparison clocks'!$C$24:$C$29</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Comparison clocks'!$D$24:$D$29</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Comparison clocks'!$I$24:$I$29</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Comparison clocks'!$C$24:$C$29</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Comparison clocks'!$D$24:$D$29</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Comparison clocks'!$I$24:$I$29</definedName>
-  </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,9 +60,6 @@
   </si>
   <si>
     <t>Softdevice: s132 2.0.0</t>
-  </si>
-  <si>
-    <t>32MHz crystal (HFXO)</t>
   </si>
   <si>
     <t>DCDC enabled</t>
@@ -145,9 +134,6 @@
     <t xml:space="preserve"> - Estimation based on trend is used to approach unmeasured values</t>
   </si>
   <si>
-    <t>Internal 32khz RC clock</t>
-  </si>
-  <si>
     <t>1 BLE event subtracted</t>
   </si>
   <si>
@@ -206,6 +192,12 @@
   </si>
   <si>
     <t>BLE event based on OPP</t>
+  </si>
+  <si>
+    <t>32KHz crystal (LFXO)</t>
+  </si>
+  <si>
+    <t>32khz external oscillator, RC clock</t>
   </si>
 </sst>
 </file>
@@ -3783,6 +3775,111 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539815</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bilde 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00F5CA0-9A7D-4647-9DE2-2703DB22C638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7825253" y="2270606"/>
+          <a:ext cx="10058400" cy="1465462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>551615</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>270420</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>32586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Bilde 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52319818-FDE2-7B4C-91A8-A0D0F10A8562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8376868" y="6362828"/>
+          <a:ext cx="10058400" cy="1469354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -4157,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F90" sqref="F85:F90"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4176,13 +4273,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="3"/>
@@ -4196,57 +4293,57 @@
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4254,17 +4351,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4290,7 +4387,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4468,7 +4565,7 @@
         <v>6.3558686567164735E-3</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4716,13 +4813,13 @@
         <v>0.1639082222594142</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="19"/>
     </row>
@@ -4777,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5055,65 +5152,65 @@
         <v>99.645981029099985</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="H71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="20">
       <c r="A72" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5132,13 +5229,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="40">
         <v>713</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="40">
         <v>478</v>
@@ -5176,14 +5273,14 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" s="42">
         <f>B86*B87*10^(-3)</f>
         <v>17.824999999999999</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F89" s="42">
         <f>F86*F87*10^(-3)</f>
@@ -5218,14 +5315,14 @@
         <v>65.984999999999999</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" s="41">
         <f>F88+F90</f>
         <v>139.035</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5239,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D134A-158A-9743-B6C5-ABF24CECB8FF}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E56" sqref="E51:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5258,13 +5355,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="32"/>
       <c r="E2" s="3"/>
@@ -5278,57 +5375,57 @@
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="31" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B4" s="32"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="32"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5336,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -5381,7 +5478,7 @@
         <v>25.515338888888898</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" ref="D14:D26" si="0">A14*B14*C14*10^(-3)</f>
+        <f t="shared" ref="D14:D25" si="0">A14*B14*C14*10^(-3)</f>
         <v>28.657744039644584</v>
       </c>
     </row>
@@ -5571,12 +5668,12 @@
         <v>50.319622584000001</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -5597,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -5619,7 +5716,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J31" s="19"/>
       <c r="L31" s="18"/>
@@ -5656,7 +5753,7 @@
         <v>37.977642857142897</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" ref="D33:D44" si="1">A33*B33*C33*10^(-3)</f>
+        <f t="shared" ref="D32:D44" si="1">A33*B33*C33*10^(-3)</f>
         <v>91.722600418800099</v>
       </c>
       <c r="E33" s="20">
@@ -5891,21 +5988,21 @@
         <f>D45-D26</f>
         <v>68.570005416000001</v>
       </c>
-      <c r="F45" t="s">
-        <v>47</v>
+      <c r="F45" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5924,13 +6021,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" s="42">
         <v>591.20000000000005</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="42">
         <v>723.2</v>
@@ -5968,14 +6065,14 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="43">
         <f>B52*B53*10^(-3)</f>
         <v>15.075600000000001</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="43">
         <f>E52*E53*10^(-3)</f>
@@ -6017,6 +6114,7 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6025,7 +6123,7 @@
   <dimension ref="C4:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6038,19 +6136,19 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -6069,13 +6167,13 @@
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="40">
         <v>713</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="42">
         <v>591.20000000000005</v>
@@ -6113,14 +6211,14 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="42">
         <f>D8*D9*10^(-3)</f>
         <v>17.824999999999999</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="43">
         <f>I8*I9*10^(-3)</f>
@@ -6155,7 +6253,7 @@
         <v>65.984999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="41">
         <f>I10+I12</f>
@@ -6164,19 +6262,19 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="3:9">
@@ -6195,13 +6293,13 @@
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="40">
         <v>478</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="42">
         <v>723.2</v>
@@ -6239,14 +6337,14 @@
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="42">
         <f>D25*D26*10^(-3)</f>
         <v>11.950000000000001</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="43">
         <f>I25*I26*10^(-3)</f>
@@ -6281,7 +6379,7 @@
         <v>139.035</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H32" s="41">
         <f>I27+I29</f>
@@ -6310,7 +6408,7 @@
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -6318,16 +6416,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -6350,7 +6448,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <f>E7+F7</f>

--- a/Misc/Measurements and calculations/Design spesification 1.1.xlsx
+++ b/Misc/Measurements and calculations/Design spesification 1.1.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="32MHZ" sheetId="3" r:id="rId1"/>
+    <sheet name="L.O" sheetId="3" r:id="rId1"/>
     <sheet name="RC" sheetId="5" r:id="rId2"/>
     <sheet name="Comparison clocks" sheetId="6" r:id="rId3"/>
     <sheet name="Ark1" sheetId="7" r:id="rId4"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
   <si>
     <t>Vdd</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Considering the measurements it is safe to assume that Vopt is 1,8V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - It is possible that the power profiling kit used in these measurements showed corrupt startup measurements at values lower or higher that DK voltage therefor the startup cost in the total</t>
-  </si>
-  <si>
-    <t>OUTPUT ENERGY calculation is based on values at DK voltage, 3 v. Overestimation is another reason to use the higher energy value at 3V</t>
   </si>
   <si>
     <t>OUTPUT ENERGY</t>
@@ -137,9 +131,6 @@
     <t>1 BLE event subtracted</t>
   </si>
   <si>
-    <t>32MHZ</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>OUTPUT ENERGY DK VOLTAGE</t>
   </si>
   <si>
-    <t>32 MHZ</t>
-  </si>
-  <si>
     <t>KEYDATA</t>
   </si>
   <si>
@@ -198,6 +186,9 @@
   </si>
   <si>
     <t>32khz external oscillator, RC clock</t>
+  </si>
+  <si>
+    <t>L.O</t>
   </si>
 </sst>
 </file>
@@ -353,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,7 +397,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -525,7 +521,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'32MHZ'!$A$13:$A$25</c:f>
+              <c:f>L.O!$A$13:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -573,7 +569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'32MHZ'!$D$13:$D$25</c:f>
+              <c:f>L.O!$D$13:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -646,7 +642,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'32MHZ'!$A$13:$A$25</c:f>
+              <c:f>L.O!$A$13:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -694,22 +690,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'32MHZ'!$G$13:$G$25</c:f>
+              <c:f>L.O!$G$13:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>28.772786254389313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.235851227792786</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.68112514730208</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.108077615125275</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>33.688565856000011</c:v>
                 </c:pt>
@@ -3709,13 +3693,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1632857</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>65167</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>463652</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>188971</xdr:rowOff>
     </xdr:to>
@@ -3746,8 +3730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14726869" y="11288889"/>
-          <a:ext cx="10058400" cy="1420486"/>
+          <a:off x="12296825" y="10528829"/>
+          <a:ext cx="13828890" cy="1916650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4254,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A384BA0-3C50-7245-86DA-782CB137FD7D}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4273,7 +4257,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -4293,7 +4277,7 @@
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="E4" s="3"/>
@@ -4307,43 +4291,43 @@
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4351,17 +4335,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4387,124 +4371,84 @@
         <v>4</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="39">
+      <c r="A13" s="52">
         <v>1.8</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="53">
         <v>713</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="53">
         <v>25</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="54">
         <f t="shared" ref="D13:D26" si="0">A13*B13*C13*10^(-3)</f>
         <v>32.085000000000001</v>
       </c>
-      <c r="E13" s="38">
-        <v>595.07036969697003</v>
-      </c>
-      <c r="F13" s="38">
-        <v>26.862169696969701</v>
-      </c>
-      <c r="G13" s="38">
-        <f>A13*E13*F13*10^(-3)</f>
-        <v>28.772786254389313</v>
-      </c>
-      <c r="H13" s="24">
-        <f>ABS(D13-G13)/D13</f>
-        <v>0.10323246830639513</v>
-      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12">
+      <c r="A14" s="55">
         <v>1.9</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="55">
         <v>684</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="55">
         <v>25</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="56">
         <f t="shared" si="0"/>
         <v>32.489999999999995</v>
       </c>
-      <c r="E14" s="20">
-        <v>598.37529090909095</v>
-      </c>
-      <c r="F14" s="20">
-        <v>26.5946909090909</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" ref="G14:G16" si="1">A14*E14*F14*10^(-3)</f>
-        <v>30.235851227792786</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" ref="H14:H26" si="2">ABS(D14-G14)/D14</f>
-        <v>6.9379771382185582E-2</v>
-      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="27">
+      <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="55">
         <v>661</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="55">
         <v>25</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="56">
         <f t="shared" si="0"/>
         <v>33.049999999999997</v>
       </c>
-      <c r="E15" s="20">
-        <v>601.68021212121198</v>
-      </c>
-      <c r="F15" s="20">
-        <v>26.327212121212099</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>31.68112514730208</v>
-      </c>
-      <c r="H15" s="24">
-        <f t="shared" si="2"/>
-        <v>4.1418301140632913E-2</v>
-      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12">
+      <c r="A16" s="55">
         <v>2.1</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="55">
         <v>640</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="55">
         <v>25</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="56">
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="E16" s="21">
-        <v>604.98513333333301</v>
-      </c>
-      <c r="F16" s="21">
-        <v>26.059733333333298</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="1"/>
-        <v>33.108077615125275</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" si="2"/>
-        <v>1.4640547168890669E-2</v>
-      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="15">
@@ -4527,11 +4471,11 @@
         <v>23.172000000000001</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" ref="G17:G26" si="3">A17*E17*F17*10^(-3)</f>
+        <f t="shared" ref="G17:G26" si="1">A17*E17*F17*10^(-3)</f>
         <v>33.688565856000011</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H14:H26" si="2">ABS(D17-G17)/D17</f>
         <v>1.3656394202898263E-2</v>
       </c>
       <c r="J17" s="19"/>
@@ -4557,7 +4501,7 @@
         <v>29.44</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34.892873856000001</v>
       </c>
       <c r="H18" s="24">
@@ -4565,7 +4509,7 @@
         <v>6.3558686567164735E-3</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4589,7 +4533,7 @@
         <v>29.119</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36.496496659199991</v>
       </c>
       <c r="H19" s="24">
@@ -4619,7 +4563,7 @@
         <v>21.311</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38.194320085000001</v>
       </c>
       <c r="H20" s="24">
@@ -4650,7 +4594,7 @@
         <v>24.31</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39.512093192000002</v>
       </c>
       <c r="H21" s="24">
@@ -4681,7 +4625,7 @@
         <v>23.148</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40.9781127384</v>
       </c>
       <c r="H22" s="24">
@@ -4712,7 +4656,7 @@
         <v>21.962</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.549082167199998</v>
       </c>
       <c r="H23" s="24">
@@ -4743,7 +4687,7 @@
         <v>21.428999999999998</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43.776044074799998</v>
       </c>
       <c r="H24" s="24">
@@ -4774,7 +4718,7 @@
         <v>29.901</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45.719645634000003</v>
       </c>
       <c r="H25" s="24">
@@ -4805,7 +4749,7 @@
         <v>22.094000000000001</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45.898720744800002</v>
       </c>
       <c r="H26" s="51">
@@ -4813,13 +4757,13 @@
         <v>0.1639082222594142</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J27" s="19"/>
     </row>
@@ -4874,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4892,8 +4836,8 @@
         <v>62.679201213000248</v>
       </c>
       <c r="E56" s="38">
-        <f t="shared" ref="E56:E68" si="4">D56-G13</f>
-        <v>33.906414958610938</v>
+        <f t="shared" ref="E56:E68" si="3">D56-G13</f>
+        <v>62.679201213000248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4907,12 +4851,12 @@
         <v>491.60750909090899</v>
       </c>
       <c r="D57" s="20">
-        <f t="shared" ref="D57:D67" si="5">A57*B57*C57*10^(-3)</f>
+        <f t="shared" ref="D57:D67" si="4">A57*B57*C57*10^(-3)</f>
         <v>66.887727976229158</v>
       </c>
       <c r="E57" s="20">
-        <f t="shared" si="4"/>
-        <v>36.651876748436372</v>
+        <f t="shared" si="3"/>
+        <v>66.887727976229158</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -4929,12 +4873,12 @@
         <v>491.550254545455</v>
       </c>
       <c r="D58" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71.172532539775744</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="4"/>
-        <v>39.491407392473661</v>
+        <f t="shared" si="3"/>
+        <v>71.172532539775744</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -4951,12 +4895,12 @@
         <v>491.49299999999999</v>
       </c>
       <c r="D59" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75.533587906560044</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" si="4"/>
-        <v>42.425510291434769</v>
+        <f t="shared" si="3"/>
+        <v>75.533587906560044</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="37"/>
@@ -4973,11 +4917,11 @@
         <v>495.58800000000002</v>
       </c>
       <c r="D60" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>84.338571134400013</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.650005278400002</v>
       </c>
     </row>
@@ -4992,11 +4936,11 @@
         <v>483.90199999999999</v>
       </c>
       <c r="D61" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>86.332326747399989</v>
       </c>
       <c r="E61" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51.439452891399988</v>
       </c>
     </row>
@@ -5011,11 +4955,11 @@
         <v>504</v>
       </c>
       <c r="D62" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>90.187775999999999</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.691279340800008</v>
       </c>
     </row>
@@ -5030,11 +4974,11 @@
         <v>485</v>
       </c>
       <c r="D63" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>95.423749999999998</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57.229429914999997</v>
       </c>
     </row>
@@ -5049,11 +4993,11 @@
         <v>469.89699999999999</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>90.105193214400003</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50.593100022400002</v>
       </c>
     </row>
@@ -5068,11 +5012,11 @@
         <v>500.28</v>
       </c>
       <c r="D65" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>98.676778068000004</v>
       </c>
       <c r="E65" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57.698665329600004</v>
       </c>
     </row>
@@ -5087,11 +5031,11 @@
         <v>493.875</v>
       </c>
       <c r="D66" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>102.95733105000001</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.408248882800009</v>
       </c>
     </row>
@@ -5106,11 +5050,11 @@
         <v>500</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>109.12844999999999</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65.352405925199989</v>
       </c>
     </row>
@@ -5129,7 +5073,7 @@
         <v>117.10307400000001</v>
       </c>
       <c r="E68" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>71.383428366000004</v>
       </c>
     </row>
@@ -5152,22 +5096,22 @@
         <v>99.645981029099985</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="H71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="20">
       <c r="A72" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5177,40 +5121,30 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5229,13 +5163,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B86" s="40">
         <v>713</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F86" s="40">
         <v>478</v>
@@ -5273,14 +5207,14 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B89" s="42">
         <f>B86*B87*10^(-3)</f>
         <v>17.824999999999999</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F89" s="42">
         <f>F86*F87*10^(-3)</f>
@@ -5315,14 +5249,14 @@
         <v>65.984999999999999</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E93" s="41">
         <f>F88+F90</f>
         <v>139.035</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D134A-158A-9743-B6C5-ABF24CECB8FF}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -5355,7 +5289,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -5375,7 +5309,7 @@
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="32"/>
       <c r="E4" s="3"/>
@@ -5389,43 +5323,43 @@
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5433,7 +5367,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -5668,12 +5602,12 @@
         <v>50.319622584000001</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -5694,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -5716,7 +5650,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" s="19"/>
       <c r="L31" s="18"/>
@@ -5753,7 +5687,7 @@
         <v>37.977642857142897</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" ref="D32:D44" si="1">A33*B33*C33*10^(-3)</f>
+        <f t="shared" ref="D33:D44" si="1">A33*B33*C33*10^(-3)</f>
         <v>91.722600418800099</v>
       </c>
       <c r="E33" s="20">
@@ -5989,20 +5923,20 @@
         <v>68.570005416000001</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6021,13 +5955,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="42">
         <v>591.20000000000005</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E52" s="42">
         <v>723.2</v>
@@ -6065,14 +5999,14 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" s="43">
         <f>B52*B53*10^(-3)</f>
         <v>15.075600000000001</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E55" s="43">
         <f>E52*E53*10^(-3)</f>
@@ -6122,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693DC18E-E3EB-E54E-87DC-25051C3D0F5D}">
   <dimension ref="C4:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6136,19 +6070,19 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -6167,13 +6101,13 @@
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="40">
         <v>713</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="42">
         <v>591.20000000000005</v>
@@ -6211,14 +6145,14 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="42">
         <f>D8*D9*10^(-3)</f>
         <v>17.824999999999999</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="43">
         <f>I8*I9*10^(-3)</f>
@@ -6253,7 +6187,7 @@
         <v>65.984999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H15" s="41">
         <f>I10+I12</f>
@@ -6262,19 +6196,19 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="3:9">
@@ -6293,13 +6227,13 @@
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="40">
         <v>478</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I25" s="42">
         <v>723.2</v>
@@ -6337,14 +6271,14 @@
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="42">
         <f>D25*D26*10^(-3)</f>
         <v>11.950000000000001</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I28" s="43">
         <f>I25*I26*10^(-3)</f>
@@ -6379,7 +6313,7 @@
         <v>139.035</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32" s="41">
         <f>I27+I29</f>
@@ -6408,7 +6342,7 @@
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -6416,16 +6350,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -6448,7 +6382,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <f>E7+F7</f>
